--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,28 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="請求書" sheetId="1" r:id="rId1"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="納品書" sheetId="3" r:id="rId3"/>
+    <sheet name="見積書" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>請求書</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -181,6 +173,215 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文番号</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折りたたみテーブル</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラウンドテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミーティングテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OA チェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OA チェア　肘付き</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッシュチェア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スチールラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レターケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請 求 書</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モトム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←TODAY()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←[Ctrl]+[;]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オミツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品場所</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行から30日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納　品　書</t>
+    <rPh sb="0" eb="1">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,7 +390,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +424,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +478,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -281,48 +544,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -333,6 +884,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="注文番号" dataDxfId="2"/>
+    <tableColumn id="2" name="商品名" dataDxfId="1"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="0" dataCellStyle="桁区切り"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,168 +1185,652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="D4" s="31">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="32">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="E6" s="15" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="26" t="str">
+        <f>IFERROR(C11*D11,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="26" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="27">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="28">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="19">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="25">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="99" zoomScaleNormal="99" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="D4" s="31">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="32">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="47">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>IFERROR(C11*D11,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="26" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="27">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="28">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="9">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
@@ -794,15 +1841,265 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="D4" s="31">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="32">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="26" t="str">
+        <f>IFERROR(C11*D11,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="26" t="str">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,"0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル3[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル3[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="27">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="15">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="28">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>